--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B146EFC-B305-4B61-9DC2-EE1FE6316370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD283972-1F88-4440-8E8F-320E82E6E1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="500mL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1585,18 +1585,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,14 +1619,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1641,4 +1633,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD283972-1F88-4440-8E8F-320E82E6E1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412380D-4BF9-4C92-88BB-209AC77B93F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="500mL" sheetId="1" r:id="rId1"/>
+    <sheet name="Nephorology" sheetId="1" r:id="rId1"/>
+    <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$J$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Nephorology!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Made by</t>
   </si>
@@ -132,6 +134,27 @@
   </si>
   <si>
     <t>Total HCl / NaOH added</t>
+  </si>
+  <si>
+    <t>Sodium Hydroxide</t>
+  </si>
+  <si>
+    <t>Total Glacial Acetic Acid added</t>
+  </si>
+  <si>
+    <t>Citrate/Acetate Buffer</t>
+  </si>
+  <si>
+    <t>Citrate/Acetate
+Buffer</t>
+  </si>
+  <si>
+    <t>Fill to
+250mL</t>
+  </si>
+  <si>
+    <t>Fill to
+100mL</t>
   </si>
 </sst>
 </file>
@@ -721,6 +744,107 @@
         <a:xfrm>
           <a:off x="2266950" y="66675"/>
           <a:ext cx="2266950" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Store in 4°C.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Shelf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> life: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>6 months.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8575DF-9F25-412F-B900-558410FD5CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="66675"/>
+          <a:ext cx="2305050" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,8 +1219,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1317,9 @@
       <c r="D6" s="35">
         <v>294.10000000000002</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.998</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="9"/>
       <c r="H6" s="16">
@@ -1214,7 +1340,9 @@
       <c r="D7" s="35">
         <v>192.124</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>0.999</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="9"/>
       <c r="H7" s="16">
@@ -1354,6 +1482,387 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832A8B93-63E2-4E83-844D-62A66B231B59}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="35">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <f>D5/E5</f>
+        <v>137.73279352226723</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="17">
+        <f>(34/E5)/4</f>
+        <v>8.6032388663967616</v>
+      </c>
+      <c r="I5" s="17">
+        <f>H5/2.5</f>
+        <v>3.4412955465587047</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="35">
+        <v>192.124</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6" si="0">D6/E6</f>
+        <v>192.31631631631632</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="17">
+        <f>(34/E6)/4</f>
+        <v>8.508508508508509</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" ref="I6:I7" si="1">H6/2.5</f>
+        <v>3.4034034034034035</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="35">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" ref="F7" si="2">D7/E7</f>
+        <v>297.0707070707071</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="17">
+        <f>(120/E7)/4</f>
+        <v>30.303030303030305</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="40"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="16">
+        <v>73.863600000000005</v>
+      </c>
+      <c r="I23" s="16">
+        <f>H23/2.5</f>
+        <v>29.545440000000003</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="38">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H24" s="16">
+        <v>113.63639999999999</v>
+      </c>
+      <c r="I24" s="33">
+        <f>H24/2.5</f>
+        <v>45.454560000000001</v>
+      </c>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1585,18 +2094,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,6 +2128,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1633,12 +2150,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9412380D-4BF9-4C92-88BB-209AC77B93F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995331A0-A3DC-49AA-A8B4-FA76E5DBFC9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$J$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$19:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephorology!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Made by</t>
   </si>
@@ -1495,10 +1495,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1714,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>28</v>
       </c>
@@ -1856,8 +1856,44 @@
       </c>
       <c r="J25" s="13"/>
     </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B32"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
@@ -1871,6 +1907,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2093,22 +2144,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2125,29 +2186,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/OxidationBuffer_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995331A0-A3DC-49AA-A8B4-FA76E5DBFC9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C144E2-BD49-411D-A367-B4D8749FC0A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -201,6 +201,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,10 +561,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -697,9 +703,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1498,7 +1508,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:J32"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1834,9 @@
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="49">
+        <v>1</v>
+      </c>
       <c r="F24" s="32"/>
       <c r="G24" s="38">
         <v>0.38500000000000001</v>
@@ -1907,21 +1919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2144,32 +2141,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2186,4 +2173,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>